--- a/frequencias.xlsx
+++ b/frequencias.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t xml:space="preserve">Dia da Semana</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t xml:space="preserve">Justificativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula extra classe.</t>
   </si>
 </sst>
 </file>
@@ -54,6 +57,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -75,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -280,13 +285,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.91836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.7908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -405,13 +410,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.91836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.7908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -509,7 +514,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -522,21 +527,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.91836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.7908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -546,15 +549,11 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="n">
@@ -564,12 +563,7 @@
       <c r="B2" s="11" t="n">
         <v>43066</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.635416666666667</v>
-      </c>
+      <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
@@ -579,11 +573,8 @@
       <c r="B3" s="11" t="n">
         <v>43067</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.572916666666667</v>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,12 +585,6 @@
       <c r="B4" s="2" t="n">
         <v>43068</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0.572916666666667</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.604166666666667</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
@@ -609,12 +594,6 @@
       <c r="B5" s="11" t="n">
         <v>43069</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0.677083333333333</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
@@ -624,17 +603,11 @@
       <c r="B6" s="11" t="n">
         <v>43070</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.739583333333333</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>

--- a/frequencias.xlsx
+++ b/frequencias.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1A" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,8 +21,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0: Presente
+1: Ausente
+2: Não registrado.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t xml:space="preserve">Dia da Semana</t>
   </si>
@@ -37,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Justificativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro dos alunos</t>
   </si>
   <si>
     <t xml:space="preserve">Aula extra classe.</t>
@@ -151,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +226,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -279,19 +311,19 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="53.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -389,7 +421,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -404,19 +436,19 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="53.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -514,7 +546,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -527,19 +559,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:6"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="53.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -552,6 +584,9 @@
       <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
@@ -564,6 +599,9 @@
         <v>43066</v>
       </c>
       <c r="C2" s="0"/>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
@@ -574,7 +612,10 @@
         <v>43067</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,6 +626,9 @@
       <c r="B4" s="2" t="n">
         <v>43068</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
@@ -594,6 +638,9 @@
       <c r="B5" s="11" t="n">
         <v>43069</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
@@ -603,14 +650,18 @@
       <c r="B6" s="11" t="n">
         <v>43070</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>